--- a/biology/Botanique/Quesnelia/Quesnelia.xlsx
+++ b/biology/Botanique/Quesnelia/Quesnelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quesnelia est un genre de Bromeliaceae qui fut décrit en 1842 par Charles Gaudichaud-Beaupré (1789-1854), après son expédition sur La Bonite, et nommé en l'honneur de M. Quesnel, gouverneur de France en Guyane[2]. Ce genre comprend une trentaine espèces surtout originaires de la forêt amazonienne du Nordeste (Brésil).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quesnelia est un genre de Bromeliaceae qui fut décrit en 1842 par Charles Gaudichaud-Beaupré (1789-1854), après son expédition sur La Bonite, et nommé en l'honneur de M. Quesnel, gouverneur de France en Guyane. Ce genre comprend une trentaine espèces surtout originaires de la forêt amazonienne du Nordeste (Brésil).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quesnelia alvimii Leme
 Quesnelia arvensis (Vellozo) Mez
@@ -535,7 +549,7 @@
 Quesnelia strobilispica Wawra
 Quesnelia testudo Lindman
 Quesnelia vanhouttei E.Morren
-Quesnelia violacea Wanderley &amp; S.L. Proença[3]</t>
+Quesnelia violacea Wanderley &amp; S.L. Proença</t>
         </is>
       </c>
     </row>
@@ -563,7 +577,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lievena Regel, 1879</t>
         </is>
